--- a/personal space(program)/SoftPlan.xlsx
+++ b/personal space(program)/SoftPlan.xlsx
@@ -8,25 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitcode\zhubiye\personal space(program)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F721E499-68F3-4888-AE8B-CB4424B1E0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EB564B-8715-4236-87A2-5BB51077B79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.09" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="2023.10" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>列1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,24 +59,72 @@
   </si>
   <si>
     <t>第一周（9.4-9.10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.对多线程进行总结
 2.对异步部分进行学习，尽量多学，能达到课程的80%
 3.找到合适的计算机网络课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.对多线程进行总结
+2.对异步部分进行学习，尽量多学，能达到课程的80%
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周进度还可以，工作
+稍微有点忙，有一点点偷懒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二周（9.11-9.17）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.找到合适的计算机网络课程
+2.学会linq和.Net 依赖注入
+3.适当的看一下计算机网络的课程并逐步推进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学会linq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体不适偶感风寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三周（9.18-9.24）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.找到合适的计算机网络课程
+2..Net 依赖注入
+3.适当的看一下计算机网络的课程并逐步推进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中秋长假加上小余回家</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学会依赖注入
+2.对系统日志和.Net日志系统进行学习
+3.计算机网络能多学就多学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三周（10.16-10.23）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -136,11 +194,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -161,11 +225,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF778CD3-A4D2-4BBF-87DC-4BB9510F3C37}" name="表1" displayName="表1" ref="A1:E20" totalsRowShown="0">
   <autoFilter ref="A1:E20" xr:uid="{A2C0A7E7-4DE4-47C6-8191-3BFDEEC7D7F2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{160799FA-D6CC-400E-9724-B7712828E2B4}" name="列1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{160799FA-D6CC-400E-9724-B7712828E2B4}" name="列1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{67379699-612E-43B3-AEE3-A6697BEA11D3}" name="计划项"/>
     <tableColumn id="3" xr3:uid="{61C6D4CD-4F2C-42D5-8392-E6328DF80872}" name="完成项"/>
     <tableColumn id="13" xr3:uid="{A1022A76-C674-4498-93E4-E30C51C96200}" name="完成进度"/>
     <tableColumn id="4" xr3:uid="{5C4E0D4C-F439-49D3-8399-9E210FD855CC}" name="评语"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A8E35478-A0A5-4FE6-988D-473C5B2B833F}" name="表1_3" displayName="表1_3" ref="A1:E20" totalsRowShown="0">
+  <autoFilter ref="A1:E20" xr:uid="{A2C0A7E7-4DE4-47C6-8191-3BFDEEC7D7F2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D3AFB35E-F4F9-48AF-8D0A-3A6AD3975981}" name="列1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{21CFF572-9979-45F3-95B5-5268A4227AB9}" name="计划项"/>
+    <tableColumn id="3" xr3:uid="{25441E2B-112D-4EC1-9086-72F868856DC5}" name="完成项"/>
+    <tableColumn id="13" xr3:uid="{4D1A89F5-26AE-4675-B6B7-16B12C957597}" name="完成进度"/>
+    <tableColumn id="4" xr3:uid="{305DF8B0-5688-41EA-A619-1C0E7D511A1D}" name="评语"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -436,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2EE5A0-B32F-426D-95D3-EBF6042F3478}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -470,34 +548,54 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -508,7 +606,9 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -602,14 +702,186 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A54FED6-6727-4D26-9921-CDCDDAFB6225}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="30.58203125" customWidth="1"/>
+    <col min="3" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>